--- a/testdata/USWNT.PriorPlayers.xlsx
+++ b/testdata/USWNT.PriorPlayers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danhi/Documents/GitHub/Projects/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D5881C-A993-144A-B601-65E043D8E5F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B5021A-5B36-6E46-9E51-2F113565FAD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="14000" xr2:uid="{C4064C88-CBAC-FD42-B3E5-1CC9EAC49E33}"/>
   </bookViews>
@@ -1152,12 +1152,6 @@
     <t>Zerboni</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
     <t>Email - Primary Work</t>
   </si>
   <si>
@@ -1168,6 +1162,12 @@
   </si>
   <si>
     <t>Steph</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>First</t>
   </si>
 </sst>
 </file>
@@ -1529,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C576818-CE3F-A047-AA36-CEF6AFD90E23}">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1544,13 +1544,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="C1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1564,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1578,7 +1578,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1592,7 +1592,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1606,7 +1606,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1620,7 +1620,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1634,7 +1634,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1648,7 +1648,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1662,7 +1662,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1676,7 +1676,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1690,7 +1690,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1704,7 +1704,7 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1718,7 +1718,7 @@
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1732,7 +1732,7 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1746,7 +1746,7 @@
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1760,7 +1760,7 @@
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1774,7 +1774,7 @@
         <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1788,7 +1788,7 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1802,7 +1802,7 @@
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1816,7 +1816,7 @@
         <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1827,10 +1827,10 @@
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F21" t="s">
         <v>59</v>
@@ -1847,7 +1847,7 @@
         <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1861,7 +1861,7 @@
         <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1875,7 +1875,7 @@
         <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1889,7 +1889,7 @@
         <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1903,7 +1903,7 @@
         <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1917,7 +1917,7 @@
         <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1925,13 +1925,13 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C28" t="s">
         <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1945,7 +1945,7 @@
         <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1959,7 +1959,7 @@
         <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1973,7 +1973,7 @@
         <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1987,7 +1987,7 @@
         <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2001,7 +2001,7 @@
         <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2015,7 +2015,7 @@
         <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2029,7 +2029,7 @@
         <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2043,7 +2043,7 @@
         <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2057,7 +2057,7 @@
         <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2071,7 +2071,7 @@
         <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2085,7 +2085,7 @@
         <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2099,7 +2099,7 @@
         <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2113,7 +2113,7 @@
         <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2127,7 +2127,7 @@
         <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2141,7 +2141,7 @@
         <v>121</v>
       </c>
       <c r="D43" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2155,7 +2155,7 @@
         <v>123</v>
       </c>
       <c r="D44" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2169,7 +2169,7 @@
         <v>126</v>
       </c>
       <c r="D45" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2183,7 +2183,7 @@
         <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2197,7 +2197,7 @@
         <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2211,7 +2211,7 @@
         <v>135</v>
       </c>
       <c r="D48" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2225,7 +2225,7 @@
         <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2239,7 +2239,7 @@
         <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2253,7 +2253,7 @@
         <v>144</v>
       </c>
       <c r="D51" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2267,7 +2267,7 @@
         <v>147</v>
       </c>
       <c r="D52" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2281,7 +2281,7 @@
         <v>150</v>
       </c>
       <c r="D53" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2295,7 +2295,7 @@
         <v>153</v>
       </c>
       <c r="D54" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2309,7 +2309,7 @@
         <v>155</v>
       </c>
       <c r="D55" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2323,7 +2323,7 @@
         <v>157</v>
       </c>
       <c r="D56" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2337,7 +2337,7 @@
         <v>160</v>
       </c>
       <c r="D57" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2351,7 +2351,7 @@
         <v>163</v>
       </c>
       <c r="D58" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2365,7 +2365,7 @@
         <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2379,7 +2379,7 @@
         <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2393,7 +2393,7 @@
         <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2407,7 +2407,7 @@
         <v>174</v>
       </c>
       <c r="D62" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2421,7 +2421,7 @@
         <v>177</v>
       </c>
       <c r="D63" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2435,7 +2435,7 @@
         <v>180</v>
       </c>
       <c r="D64" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2449,7 +2449,7 @@
         <v>180</v>
       </c>
       <c r="D65" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2463,7 +2463,7 @@
         <v>185</v>
       </c>
       <c r="D66" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2477,7 +2477,7 @@
         <v>188</v>
       </c>
       <c r="D67" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2491,7 +2491,7 @@
         <v>191</v>
       </c>
       <c r="D68" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2505,7 +2505,7 @@
         <v>194</v>
       </c>
       <c r="D69" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2519,7 +2519,7 @@
         <v>196</v>
       </c>
       <c r="D70" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2533,7 +2533,7 @@
         <v>199</v>
       </c>
       <c r="D71" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2547,7 +2547,7 @@
         <v>201</v>
       </c>
       <c r="D72" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2561,7 +2561,7 @@
         <v>204</v>
       </c>
       <c r="D73" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2575,7 +2575,7 @@
         <v>207</v>
       </c>
       <c r="D74" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2589,7 +2589,7 @@
         <v>210</v>
       </c>
       <c r="D75" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2603,7 +2603,7 @@
         <v>213</v>
       </c>
       <c r="D76" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2617,7 +2617,7 @@
         <v>213</v>
       </c>
       <c r="D77" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2631,7 +2631,7 @@
         <v>217</v>
       </c>
       <c r="D78" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2645,7 +2645,7 @@
         <v>220</v>
       </c>
       <c r="D79" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2659,7 +2659,7 @@
         <v>223</v>
       </c>
       <c r="D80" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2673,7 +2673,7 @@
         <v>226</v>
       </c>
       <c r="D81" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2687,7 +2687,7 @@
         <v>229</v>
       </c>
       <c r="D82" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2701,7 +2701,7 @@
         <v>231</v>
       </c>
       <c r="D83" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2715,7 +2715,7 @@
         <v>234</v>
       </c>
       <c r="D84" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2729,7 +2729,7 @@
         <v>237</v>
       </c>
       <c r="D85" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2743,7 +2743,7 @@
         <v>240</v>
       </c>
       <c r="D86" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2757,7 +2757,7 @@
         <v>243</v>
       </c>
       <c r="D87" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2771,7 +2771,7 @@
         <v>246</v>
       </c>
       <c r="D88" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2785,7 +2785,7 @@
         <v>248</v>
       </c>
       <c r="D89" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2799,7 +2799,7 @@
         <v>251</v>
       </c>
       <c r="D90" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2813,7 +2813,7 @@
         <v>254</v>
       </c>
       <c r="D91" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2827,7 +2827,7 @@
         <v>257</v>
       </c>
       <c r="D92" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2841,7 +2841,7 @@
         <v>260</v>
       </c>
       <c r="D93" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2855,7 +2855,7 @@
         <v>263</v>
       </c>
       <c r="D94" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2869,7 +2869,7 @@
         <v>265</v>
       </c>
       <c r="D95" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2883,7 +2883,7 @@
         <v>268</v>
       </c>
       <c r="D96" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2897,7 +2897,7 @@
         <v>271</v>
       </c>
       <c r="D97" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2911,7 +2911,7 @@
         <v>274</v>
       </c>
       <c r="D98" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2925,7 +2925,7 @@
         <v>277</v>
       </c>
       <c r="D99" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2939,7 +2939,7 @@
         <v>280</v>
       </c>
       <c r="D100" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2953,7 +2953,7 @@
         <v>282</v>
       </c>
       <c r="D101" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2967,7 +2967,7 @@
         <v>284</v>
       </c>
       <c r="D102" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2981,7 +2981,7 @@
         <v>287</v>
       </c>
       <c r="D103" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2995,7 +2995,7 @@
         <v>290</v>
       </c>
       <c r="D104" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -3009,7 +3009,7 @@
         <v>293</v>
       </c>
       <c r="D105" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -3023,7 +3023,7 @@
         <v>295</v>
       </c>
       <c r="D106" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -3037,7 +3037,7 @@
         <v>298</v>
       </c>
       <c r="D107" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -3051,7 +3051,7 @@
         <v>300</v>
       </c>
       <c r="D108" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -3065,7 +3065,7 @@
         <v>302</v>
       </c>
       <c r="D109" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -3079,7 +3079,7 @@
         <v>304</v>
       </c>
       <c r="D110" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -3093,7 +3093,7 @@
         <v>307</v>
       </c>
       <c r="D111" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -3107,7 +3107,7 @@
         <v>309</v>
       </c>
       <c r="D112" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -3121,7 +3121,7 @@
         <v>312</v>
       </c>
       <c r="D113" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -3135,7 +3135,7 @@
         <v>315</v>
       </c>
       <c r="D114" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -3149,7 +3149,7 @@
         <v>317</v>
       </c>
       <c r="D115" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -3163,7 +3163,7 @@
         <v>319</v>
       </c>
       <c r="D116" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -3177,7 +3177,7 @@
         <v>322</v>
       </c>
       <c r="D117" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -3191,7 +3191,7 @@
         <v>325</v>
       </c>
       <c r="D118" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -3205,7 +3205,7 @@
         <v>328</v>
       </c>
       <c r="D119" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -3219,7 +3219,7 @@
         <v>331</v>
       </c>
       <c r="D120" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -3233,7 +3233,7 @@
         <v>334</v>
       </c>
       <c r="D121" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -3247,7 +3247,7 @@
         <v>337</v>
       </c>
       <c r="D122" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -3261,7 +3261,7 @@
         <v>340</v>
       </c>
       <c r="D123" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -3275,7 +3275,7 @@
         <v>343</v>
       </c>
       <c r="D124" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -3289,7 +3289,7 @@
         <v>346</v>
       </c>
       <c r="D125" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -3303,7 +3303,7 @@
         <v>349</v>
       </c>
       <c r="D126" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -3317,7 +3317,7 @@
         <v>352</v>
       </c>
       <c r="D127" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -3331,7 +3331,7 @@
         <v>355</v>
       </c>
       <c r="D128" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -3345,7 +3345,7 @@
         <v>358</v>
       </c>
       <c r="D129" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -3359,7 +3359,7 @@
         <v>361</v>
       </c>
       <c r="D130" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -3373,7 +3373,7 @@
         <v>364</v>
       </c>
       <c r="D131" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -3387,7 +3387,7 @@
         <v>367</v>
       </c>
       <c r="D132" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -3401,7 +3401,7 @@
         <v>369</v>
       </c>
       <c r="D133" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -3415,7 +3415,7 @@
         <v>372</v>
       </c>
       <c r="D134" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
